--- a/Project 4/Complexity Finder.xlsx
+++ b/Project 4/Complexity Finder.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josia\Documents\UNI Stuff\CS\24 25\Algorithms and Data Structures\CourseWork\ADS\Project 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD183A22-62D5-46A0-B1AF-C7003FD514E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A12F4C-0C6E-4F1B-A26C-250F3285E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7E867FD7-2FD7-4F9B-9C5F-473AD6A2C985}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{7E867FD7-2FD7-4F9B-9C5F-473AD6A2C985}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Complexity" sheetId="1" r:id="rId1"/>
+    <sheet name="fitness" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>i</t>
   </si>
@@ -76,6 +78,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Fitness 1</t>
   </si>
 </sst>
 </file>
@@ -258,7 +263,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$3:$X$12</c:f>
+              <c:f>Complexity!$X$3:$X$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -297,7 +302,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$12</c:f>
+              <c:f>Complexity!$Y$3:$Y$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1437,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85BFE5E-5131-4C33-BF17-2E1A30146405}">
   <dimension ref="C2:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AD32" sqref="AD32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1503,7 @@
         <v>0.54276923076923078</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="W4:X23" si="0">X3+1</f>
+        <f t="shared" ref="X4:X22" si="0">X3+1</f>
         <v>2</v>
       </c>
       <c r="Y4">
@@ -1998,7 +2003,7 @@
         <v>8.2923076923076913</v>
       </c>
       <c r="X24">
-        <f t="shared" ref="X24:X35" si="3">X23+1</f>
+        <f t="shared" ref="X24:X32" si="3">X23+1</f>
         <v>22</v>
       </c>
       <c r="Y24">
@@ -2211,4 +2216,412 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279AC3A7-CDFA-4B1F-9842-1C16ED44BBA7}">
+  <dimension ref="B2:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>15.12</v>
+      </c>
+      <c r="C4">
+        <f>SUM(B3,B4)</f>
+        <v>70.56</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">COUNT(B$3:$C4+1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5">SUM(B$3:$C4+1)</f>
+        <v>145.12</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">COUNT(B$3:$C5+1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" ref="C6">SUM(B$3:$C5+1)</f>
+        <v>293.01</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">COUNT(B$3:$C6+1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>95.24</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7">SUM(B$3:$C6+1)</f>
+        <v>591.12</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">COUNT(B$3:$C7+1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>89.59</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" ref="C8">SUM(B$3:$C7+1)</f>
+        <v>1279.48</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">COUNT(B$3:$C8+1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="C9" cm="1">
+        <f t="array" ref="C9">SUM(B$3:$C8+1)</f>
+        <v>2650.55</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">COUNT(B$3:$C9+1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>58.77</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10">SUM(B$3:$C9+1)</f>
+        <v>5310.22</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">COUNT(B$3:$C10+1)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>78.98</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">SUM(B$3:$C10+1)</f>
+        <v>10681.210000000001</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">COUNT(B$3:$C11+1)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>55.76</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">SUM(B$3:$C11+1)</f>
+        <v>21443.4</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">COUNT(B$3:$C12+1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>30.34</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">SUM(B$3:$C12+1)</f>
+        <v>42944.56</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">COUNT(B$3:$C13+1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">SUM(B$3:$C13+1)</f>
+        <v>85921.459999999992</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">COUNT(B$3:$C14+1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>44.05</v>
+      </c>
+      <c r="C15" cm="1">
+        <f t="array" ref="C15">SUM(B$3:$C14+1)</f>
+        <v>171862.41999999998</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">COUNT(B$3:$C15+1)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="C16" cm="1">
+        <f t="array" ref="C16">SUM(B$3:$C15+1)</f>
+        <v>343770.88999999996</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">COUNT(B$3:$C16+1)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="C17" cm="1">
+        <f t="array" ref="C17">SUM(B$3:$C16+1)</f>
+        <v>687618.53999999992</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">COUNT(B$3:$C17+1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>96.55</v>
+      </c>
+      <c r="C18" cm="1">
+        <f t="array" ref="C18">SUM(B$3:$C17+1)</f>
+        <v>1375267.48</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">COUNT(B$3:$C18+1)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>87.78</v>
+      </c>
+      <c r="C19" cm="1">
+        <f t="array" ref="C19">SUM(B$3:$C18+1)</f>
+        <v>2750633.51</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">COUNT(B$3:$C19+1)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>65.56</v>
+      </c>
+      <c r="C20" cm="1">
+        <f t="array" ref="C20">SUM(B$3:$C19+1)</f>
+        <v>5501356.7999999989</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">COUNT(B$3:$C20+1)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>72.91</v>
+      </c>
+      <c r="C21" cm="1">
+        <f t="array" ref="C21">SUM(B$3:$C20+1)</f>
+        <v>11002781.159999996</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">COUNT(B$3:$C21+1)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="C22" cm="1">
+        <f t="array" ref="C22">SUM(B$3:$C21+1)</f>
+        <v>22005637.229999993</v>
+      </c>
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">COUNT(B$3:$C22+1)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="C23" cm="1">
+        <f t="array" ref="C23">SUM(B$3:$C22+1)</f>
+        <v>44011316.199999988</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">COUNT(B$3:$C23+1)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>38.72</v>
+      </c>
+      <c r="C24" cm="1">
+        <f t="array" ref="C24">SUM(B$3:$C23+1)</f>
+        <v>88022673.919999987</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">COUNT(B$3:$C24+1)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="C25" cm="1">
+        <f t="array" ref="C25">SUM(B$3:$C24+1)</f>
+        <v>176045388.55999997</v>
+      </c>
+      <c r="D25" cm="1">
+        <f t="array" ref="D25">COUNT(B$3:$C25+1)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>32.31</v>
+      </c>
+      <c r="C26" cm="1">
+        <f t="array" ref="C26">SUM(B$3:$C25+1)</f>
+        <v>352090787.23999995</v>
+      </c>
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">COUNT(B$3:$C26+1)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>12.28</v>
+      </c>
+      <c r="C27" cm="1">
+        <f t="array" ref="C27">SUM(B$3:$C26+1)</f>
+        <v>704181608.78999996</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">COUNT(B$3:$C27+1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>52.15</v>
+      </c>
+      <c r="C28" cm="1">
+        <f t="array" ref="C28">SUM(B$3:$C27+1)</f>
+        <v>1408363231.8599999</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">COUNT(B$3:$C28+1)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>89.93</v>
+      </c>
+      <c r="C29" cm="1">
+        <f t="array" ref="C29">SUM(B$3:$C28+1)</f>
+        <v>2816726517.8699999</v>
+      </c>
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">COUNT(B$3:$C29+1)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="C30" cm="1">
+        <f t="array" ref="C30">SUM(B$3:$C29+1)</f>
+        <v>5633453127.6700001</v>
+      </c>
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">COUNT(B$3:$C30+1)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="C31" cm="1">
+        <f t="array" ref="C31">SUM(B$3:$C30+1)</f>
+        <v>11266906273.24</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">COUNT(B$3:$C31+1)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C32" cm="1">
+        <f t="array" ref="C32">SUM(B$3:$C31+1)</f>
+        <v>22533812551.849998</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">COUNT(B$3:$C32+1)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project 4/Complexity Finder.xlsx
+++ b/Project 4/Complexity Finder.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josia\Documents\UNI Stuff\CS\24 25\Algorithms and Data Structures\CourseWork\ADS\Project 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Documents\GitHub\ADS\Project 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A12F4C-0C6E-4F1B-A26C-250F3285E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D527268-B064-49AF-A778-9E1F69CD8CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{7E867FD7-2FD7-4F9B-9C5F-473AD6A2C985}"/>
+    <workbookView minimized="1" xWindow="10260" yWindow="2655" windowWidth="18810" windowHeight="19065" xr2:uid="{7E867FD7-2FD7-4F9B-9C5F-473AD6A2C985}"/>
   </bookViews>
   <sheets>
     <sheet name="Complexity" sheetId="1" r:id="rId1"/>
-    <sheet name="fitness" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>i</t>
   </si>
@@ -78,9 +76,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>Fitness 1</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85BFE5E-5131-4C33-BF17-2E1A30146405}">
   <dimension ref="C2:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,412 +2211,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279AC3A7-CDFA-4B1F-9842-1C16ED44BBA7}">
-  <dimension ref="B2:F32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>55.44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="C4">
-        <f>SUM(B3,B4)</f>
-        <v>70.56</v>
-      </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">COUNT(B$3:$C4+1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="C5" cm="1">
-        <f t="array" ref="C5">SUM(B$3:$C4+1)</f>
-        <v>145.12</v>
-      </c>
-      <c r="D5" cm="1">
-        <f t="array" ref="D5">COUNT(B$3:$C5+1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="C6" cm="1">
-        <f t="array" ref="C6">SUM(B$3:$C5+1)</f>
-        <v>293.01</v>
-      </c>
-      <c r="D6" cm="1">
-        <f t="array" ref="D6">COUNT(B$3:$C6+1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>95.24</v>
-      </c>
-      <c r="C7" cm="1">
-        <f t="array" ref="C7">SUM(B$3:$C6+1)</f>
-        <v>591.12</v>
-      </c>
-      <c r="D7" cm="1">
-        <f t="array" ref="D7">COUNT(B$3:$C7+1)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>89.59</v>
-      </c>
-      <c r="C8" cm="1">
-        <f t="array" ref="C8">SUM(B$3:$C7+1)</f>
-        <v>1279.48</v>
-      </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">COUNT(B$3:$C8+1)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>7.12</v>
-      </c>
-      <c r="C9" cm="1">
-        <f t="array" ref="C9">SUM(B$3:$C8+1)</f>
-        <v>2650.55</v>
-      </c>
-      <c r="D9" cm="1">
-        <f t="array" ref="D9">COUNT(B$3:$C9+1)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>58.77</v>
-      </c>
-      <c r="C10" cm="1">
-        <f t="array" ref="C10">SUM(B$3:$C9+1)</f>
-        <v>5310.22</v>
-      </c>
-      <c r="D10" cm="1">
-        <f t="array" ref="D10">COUNT(B$3:$C10+1)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>78.98</v>
-      </c>
-      <c r="C11" cm="1">
-        <f t="array" ref="C11">SUM(B$3:$C10+1)</f>
-        <v>10681.210000000001</v>
-      </c>
-      <c r="D11" cm="1">
-        <f t="array" ref="D11">COUNT(B$3:$C11+1)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>55.76</v>
-      </c>
-      <c r="C12" cm="1">
-        <f t="array" ref="C12">SUM(B$3:$C11+1)</f>
-        <v>21443.4</v>
-      </c>
-      <c r="D12" cm="1">
-        <f t="array" ref="D12">COUNT(B$3:$C12+1)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>30.34</v>
-      </c>
-      <c r="C13" cm="1">
-        <f t="array" ref="C13">SUM(B$3:$C12+1)</f>
-        <v>42944.56</v>
-      </c>
-      <c r="D13" cm="1">
-        <f t="array" ref="D13">COUNT(B$3:$C13+1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="C14" cm="1">
-        <f t="array" ref="C14">SUM(B$3:$C13+1)</f>
-        <v>85921.459999999992</v>
-      </c>
-      <c r="D14" cm="1">
-        <f t="array" ref="D14">COUNT(B$3:$C14+1)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>44.05</v>
-      </c>
-      <c r="C15" cm="1">
-        <f t="array" ref="C15">SUM(B$3:$C14+1)</f>
-        <v>171862.41999999998</v>
-      </c>
-      <c r="D15" cm="1">
-        <f t="array" ref="D15">COUNT(B$3:$C15+1)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>74.760000000000005</v>
-      </c>
-      <c r="C16" cm="1">
-        <f t="array" ref="C16">SUM(B$3:$C15+1)</f>
-        <v>343770.88999999996</v>
-      </c>
-      <c r="D16" cm="1">
-        <f t="array" ref="D16">COUNT(B$3:$C16+1)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>28.4</v>
-      </c>
-      <c r="C17" cm="1">
-        <f t="array" ref="C17">SUM(B$3:$C16+1)</f>
-        <v>687618.53999999992</v>
-      </c>
-      <c r="D17" cm="1">
-        <f t="array" ref="D17">COUNT(B$3:$C17+1)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>96.55</v>
-      </c>
-      <c r="C18" cm="1">
-        <f t="array" ref="C18">SUM(B$3:$C17+1)</f>
-        <v>1375267.48</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">COUNT(B$3:$C18+1)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>87.78</v>
-      </c>
-      <c r="C19" cm="1">
-        <f t="array" ref="C19">SUM(B$3:$C18+1)</f>
-        <v>2750633.51</v>
-      </c>
-      <c r="D19" cm="1">
-        <f t="array" ref="D19">COUNT(B$3:$C19+1)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>65.56</v>
-      </c>
-      <c r="C20" cm="1">
-        <f t="array" ref="C20">SUM(B$3:$C19+1)</f>
-        <v>5501356.7999999989</v>
-      </c>
-      <c r="D20" cm="1">
-        <f t="array" ref="D20">COUNT(B$3:$C20+1)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>72.91</v>
-      </c>
-      <c r="C21" cm="1">
-        <f t="array" ref="C21">SUM(B$3:$C20+1)</f>
-        <v>11002781.159999996</v>
-      </c>
-      <c r="D21" cm="1">
-        <f t="array" ref="D21">COUNT(B$3:$C21+1)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>39.74</v>
-      </c>
-      <c r="C22" cm="1">
-        <f t="array" ref="C22">SUM(B$3:$C21+1)</f>
-        <v>22005637.229999993</v>
-      </c>
-      <c r="D22" cm="1">
-        <f t="array" ref="D22">COUNT(B$3:$C22+1)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>39.520000000000003</v>
-      </c>
-      <c r="C23" cm="1">
-        <f t="array" ref="C23">SUM(B$3:$C22+1)</f>
-        <v>44011316.199999988</v>
-      </c>
-      <c r="D23" cm="1">
-        <f t="array" ref="D23">COUNT(B$3:$C23+1)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>38.72</v>
-      </c>
-      <c r="C24" cm="1">
-        <f t="array" ref="C24">SUM(B$3:$C23+1)</f>
-        <v>88022673.919999987</v>
-      </c>
-      <c r="D24" cm="1">
-        <f t="array" ref="D24">COUNT(B$3:$C24+1)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="C25" cm="1">
-        <f t="array" ref="C25">SUM(B$3:$C24+1)</f>
-        <v>176045388.55999997</v>
-      </c>
-      <c r="D25" cm="1">
-        <f t="array" ref="D25">COUNT(B$3:$C25+1)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>32.31</v>
-      </c>
-      <c r="C26" cm="1">
-        <f t="array" ref="C26">SUM(B$3:$C25+1)</f>
-        <v>352090787.23999995</v>
-      </c>
-      <c r="D26" cm="1">
-        <f t="array" ref="D26">COUNT(B$3:$C26+1)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>12.28</v>
-      </c>
-      <c r="C27" cm="1">
-        <f t="array" ref="C27">SUM(B$3:$C26+1)</f>
-        <v>704181608.78999996</v>
-      </c>
-      <c r="D27" cm="1">
-        <f t="array" ref="D27">COUNT(B$3:$C27+1)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>52.15</v>
-      </c>
-      <c r="C28" cm="1">
-        <f t="array" ref="C28">SUM(B$3:$C27+1)</f>
-        <v>1408363231.8599999</v>
-      </c>
-      <c r="D28" cm="1">
-        <f t="array" ref="D28">COUNT(B$3:$C28+1)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>89.93</v>
-      </c>
-      <c r="C29" cm="1">
-        <f t="array" ref="C29">SUM(B$3:$C28+1)</f>
-        <v>2816726517.8699999</v>
-      </c>
-      <c r="D29" cm="1">
-        <f t="array" ref="D29">COUNT(B$3:$C29+1)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="C30" cm="1">
-        <f t="array" ref="C30">SUM(B$3:$C29+1)</f>
-        <v>5633453127.6700001</v>
-      </c>
-      <c r="D30" cm="1">
-        <f t="array" ref="D30">COUNT(B$3:$C30+1)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>3.37</v>
-      </c>
-      <c r="C31" cm="1">
-        <f t="array" ref="C31">SUM(B$3:$C30+1)</f>
-        <v>11266906273.24</v>
-      </c>
-      <c r="D31" cm="1">
-        <f t="array" ref="D31">COUNT(B$3:$C31+1)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C32" cm="1">
-        <f t="array" ref="C32">SUM(B$3:$C31+1)</f>
-        <v>22533812551.849998</v>
-      </c>
-      <c r="D32" cm="1">
-        <f t="array" ref="D32">COUNT(B$3:$C32+1)</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Project 4/Complexity Finder.xlsx
+++ b/Project 4/Complexity Finder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Documents\GitHub\ADS\Project 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D527268-B064-49AF-A778-9E1F69CD8CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE32999B-EC92-469B-813D-C81CB6D336AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10260" yWindow="2655" windowWidth="18810" windowHeight="19065" xr2:uid="{7E867FD7-2FD7-4F9B-9C5F-473AD6A2C985}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{7E867FD7-2FD7-4F9B-9C5F-473AD6A2C985}"/>
   </bookViews>
   <sheets>
     <sheet name="Complexity" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Of Combinations By Size of Set</a:t>
+              <a:t> of Combinations by Size of Set</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1438,7 +1438,7 @@
   <dimension ref="C2:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
